--- a/data/trans_orig/P14C03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F108323-7414-47EB-AEC2-6F765FBCEC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62997531-8720-45CC-875E-87D4128E3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A8E0EC7-F5F5-4E0C-9BBE-1EE1F537775A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7399808C-4A2B-442B-94ED-E70CB05B7DEE}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
     <t>Población según el tiempo de diagnóstico de la hipertensión en 2015 (Tasa respuesta: 15,71%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>78,47%</t>
   </si>
   <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,19 +104,19 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
   </si>
   <si>
     <t>14,28%</t>
   </si>
   <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>14,71%</t>
@@ -125,7 +125,7 @@
     <t>11,87%</t>
   </si>
   <si>
-    <t>17,73%</t>
+    <t>17,79%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -134,28 +134,28 @@
     <t>6,12%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>3,95%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>4,77%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,241 +167,238 @@
     <t>64,73%</t>
   </si>
   <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
   </si>
   <si>
     <t>72,85%</t>
   </si>
   <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
   </si>
   <si>
     <t>68,67%</t>
   </si>
   <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
   </si>
   <si>
     <t>3,79%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>2,07%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>5,77%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -816,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AECAED-211D-4A3D-B4C0-6391F3FE254B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D53897-07A0-4330-A220-DAD352527455}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1173,7 +1170,7 @@
         <v>271</v>
       </c>
       <c r="N8" s="7">
-        <v>299059</v>
+        <v>299060</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1326,7 +1323,7 @@
         <v>395</v>
       </c>
       <c r="N11" s="7">
-        <v>435532</v>
+        <v>435533</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1639,13 +1636,13 @@
         <v>232233</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,13 +1657,13 @@
         <v>24320</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -1675,13 +1672,13 @@
         <v>24467</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>45</v>
@@ -1690,13 +1687,13 @@
         <v>48787</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,7 +1749,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C03-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62997531-8720-45CC-875E-87D4128E3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7478391-68A2-48F2-B21E-7A1D09A1101B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7399808C-4A2B-442B-94ED-E70CB05B7DEE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F32A218-1B4B-41F1-ACB3-1725680DBE17}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="122">
   <si>
-    <t>Población según el tiempo de diagnóstico de la hipertensión en 2015 (Tasa respuesta: 15,71%)</t>
+    <t>Población según el tiempo de diagnóstico de la hipertensión en 2016 (Tasa respuesta: 15,71%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,7 +74,7 @@
     <t>78,47%</t>
   </si>
   <si>
-    <t>72,74%</t>
+    <t>72,75%</t>
   </si>
   <si>
     <t>83,61%</t>
@@ -83,19 +83,19 @@
     <t>81,76%</t>
   </si>
   <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,301 +104,301 @@
     <t>15,41%</t>
   </si>
   <si>
-    <t>11,41%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>Ultimos 12 meses</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>Ultimos 12 meses</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D53897-07A0-4330-A220-DAD352527455}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DA43BF-6CCA-4AB6-9902-212DA8439A72}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1636,13 +1636,13 @@
         <v>232233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,13 +1657,13 @@
         <v>24320</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
